--- a/image/account.xlsx
+++ b/image/account.xlsx
@@ -827,43 +827,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="115.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="61.125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.79296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.62109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="57.42578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="58.58984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/account.xlsx
+++ b/image/account.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="212">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -408,10 +408,6 @@
   </si>
   <si>
     <t xml:space="preserve">Title
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -827,43 +823,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="116.25" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.79296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.62109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="61.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.95703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="58.58984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="57.42578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2258,13 +2254,13 @@
         <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2330,19 +2326,19 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2361,16 +2357,16 @@
         <v>47</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2420,7 +2416,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2435,15 +2431,15 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2466,16 +2462,16 @@
         <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2525,7 +2521,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2540,15 +2536,15 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2571,16 +2567,16 @@
         <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2630,7 +2626,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2642,10 +2638,10 @@
         <v>41</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -2653,7 +2649,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2676,13 +2672,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2733,22 +2729,22 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -2756,7 +2752,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2785,7 +2781,7 @@
         <v>92</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>94</v>
@@ -2838,7 +2834,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -2853,7 +2849,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -2861,11 +2857,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -2887,10 +2883,10 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>94</v>
@@ -2945,7 +2941,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -2968,7 +2964,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2991,13 +2987,13 @@
         <v>47</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3048,7 +3044,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>46</v>
@@ -3063,7 +3059,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -3071,11 +3067,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3094,16 +3090,16 @@
         <v>47</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3153,7 +3149,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3168,7 +3164,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -3176,7 +3172,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3199,13 +3195,13 @@
         <v>47</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3256,7 +3252,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3271,7 +3267,7 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -3279,7 +3275,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3302,13 +3298,13 @@
         <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3359,7 +3355,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3374,7 +3370,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -3382,7 +3378,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3405,13 +3401,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3462,7 +3458,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3474,10 +3470,10 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -3485,7 +3481,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3508,13 +3504,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3565,22 +3561,22 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -3588,7 +3584,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3617,7 +3613,7 @@
         <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>94</v>
@@ -3670,7 +3666,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3685,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -3693,11 +3689,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -3719,10 +3715,10 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>94</v>
@@ -3777,7 +3773,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3800,7 +3796,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3823,13 +3819,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3880,7 +3876,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>46</v>
@@ -3895,7 +3891,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -3903,7 +3899,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3926,13 +3922,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3983,7 +3979,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -3998,7 +3994,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4006,7 +4002,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4029,13 +4025,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4086,7 +4082,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4101,7 +4097,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4109,7 +4105,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4132,13 +4128,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4189,7 +4185,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
